--- a/dados/vecaracessorios.xlsx
+++ b/dados/vecaracessorios.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -493,16 +493,16 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+          <t>Fonte Carregador De Bateria Jfa 70a Lite Slim Bivolt</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 70A LITE</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>519.39</v>
+        <v>501.52</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -516,19 +516,19 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:445068839#searchVariation=MLB21455208&amp;position=46&amp;search_layout=stack&amp;type=product&amp;tracking_id=4498e9ce-4632-4edb-89e6-d806be8d29d7</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3566017641-fonte-carregador-de-bateria-jfa-70a-lite-slim-bivolt-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db08a440c-b925-48ec-b24e-342aeda30ed1</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -538,20 +538,20 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+          <t>Controle Remoto Longa Distancia Jfa K1200 Metros Universal Cor Preto Com Os Botões Laranja</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ACQUA</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>93.17</v>
+        <v>61.19</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -561,19 +561,19 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:445068839#searchVariation=MLB27685629&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=4498e9ce-4632-4edb-89e6-d806be8d29d7</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-longa-distancia-jfa-k1200-metros-universal-cor-preto-com-os-botoes-laranja/p/MLB28532696?pdp_filters=seller_id:445068839#wid=MLB4459507784&amp;sid=search&amp;searchVariation=MLB28532696&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=b08a440c-b925-48ec-b24e-342aeda30ed1</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -583,20 +583,20 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>64.86</v>
+        <v>519.39</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -611,14 +611,14 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:445068839#searchVariation=MLB28722231&amp;position=27&amp;search_layout=stack&amp;type=product&amp;tracking_id=4498e9ce-4632-4edb-89e6-d806be8d29d7</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:445068839#wid=MLB3638306592&amp;sid=search&amp;searchVariation=MLB21455208&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=b08a440c-b925-48ec-b24e-342aeda30ed1</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -628,16 +628,16 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+          <t>Fonte Automotiva 70 Amperes Jfa Storm Red Line Cca Sci Smart</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>466.39</v>
+        <v>551.1900000000001</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -656,14 +656,14 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:445068839#searchVariation=MLB21562641&amp;position=31&amp;search_layout=stack&amp;type=product&amp;tracking_id=4498e9ce-4632-4edb-89e6-d806be8d29d7</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2668693958-fonte-automotiva-70-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D12%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db08a440c-b925-48ec-b24e-342aeda30ed1</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -673,20 +673,20 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+          <t>Controle Longa Distância Jfa K1200 1200 Metros Laranja</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ACQUA</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>77.90000000000001</v>
+        <v>66.2</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -696,19 +696,19 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:445068839#searchVariation=MLB27687422&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=4498e9ce-4632-4edb-89e6-d806be8d29d7</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3130585817-controle-longa-distncia-jfa-k1200-1200-metros-laranja-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db08a440c-b925-48ec-b24e-342aeda30ed1</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -718,35 +718,1054 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ACQUA</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:445068839#wid=MLB4459540392&amp;sid=search&amp;searchVariation=MLB27687422&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=b08a440c-b925-48ec-b24e-342aeda30ed1</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>vecaracessorios</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa Redline Wr P/ Aparelho Original</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>CONTROLE WR</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>107.9</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2054823319-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db08a440c-b925-48ec-b24e-342aeda30ed1</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>vecaracessorios</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 60a Lite Storm Slim Bivolt Lançamento</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>FONTE 60A LITE</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>456.36</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3266265337-fonte-carregador-jfa-60a-lite-storm-slim-bivolt-lancamento-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db08a440c-b925-48ec-b24e-342aeda30ed1</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>vecaracessorios</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Jfa 600 Branco Com Teclas Cinzas</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>66.66</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1387388246-controle-longa-distncia-jfa-600-branco-com-teclas-cinzas-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db08a440c-b925-48ec-b24e-342aeda30ed1</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>vecaracessorios</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fonte Carregador Automotivo Jfa 120a Bob Storm Bivolt </t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>568.15</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4362514214-fonte-carregador-automotivo-jfa-120a-bob-storm-bivolt-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db08a440c-b925-48ec-b24e-342aeda30ed1</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>vecaracessorios</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>487.48</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:445068839#wid=MLB4359331622&amp;sid=search&amp;searchVariation=MLB21320712&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=b08a440c-b925-48ec-b24e-342aeda30ed1</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>vecaracessorios</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotiva 200a Jfa Storm Bivolt Automático</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>890.39</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2668629482-fonte-carregador-automotiva-200a-jfa-storm-bivolt-automatico-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db08a440c-b925-48ec-b24e-342aeda30ed1</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>vecaracessorios</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Jfa 1200 Preto</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>70.17</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1387375498-controle-longa-distncia-jfa-1200-preto-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db08a440c-b925-48ec-b24e-342aeda30ed1</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>vecaracessorios</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa K1200 Acqua Completo Top Preto</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ACQUA</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2799616696-controle-longa-distancia-jfa-k1200-acqua-completo-top-preto-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db08a440c-b925-48ec-b24e-342aeda30ed1</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>vecaracessorios</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>FONTE 60A LITE</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>425.85</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:445068839#wid=MLB3565330995&amp;sid=search&amp;searchVariation=MLB23456525&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=b08a440c-b925-48ec-b24e-342aeda30ed1</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>vecaracessorios</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Bateria Jfa60a Lite Storm Slim Bivolt Preto</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>FONTE 60A LITE</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>455.57</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4359790856-fonte-carregador-bateria-jfa60a-lite-storm-slim-bivolt-preto-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db08a440c-b925-48ec-b24e-342aeda30ed1</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>vecaracessorios</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Jfa 1200 Vermelho E Preto</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>71.90000000000001</v>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1386393013-controle-longa-distncia-jfa-1200-vermelho-e-preto-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db08a440c-b925-48ec-b24e-342aeda30ed1</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>vecaracessorios</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>525.75</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:445068839#wid=MLB4362784196&amp;sid=search&amp;searchVariation=MLB22144397&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=b08a440c-b925-48ec-b24e-342aeda30ed1</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>vecaracessorios</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Jfa K600 Completo Banco Com Cinza</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>61.62</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1387386274-controle-longa-distncia-jfa-k600-completo-banco-com-cinza-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db08a440c-b925-48ec-b24e-342aeda30ed1</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>vecaracessorios</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa Redline Wr P/ Aparelho Original</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>CONTROLE WR</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>100.99</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2054804459-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db08a440c-b925-48ec-b24e-342aeda30ed1</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>vecaracessorios</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>64.86</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-preto/p/MLB28687615?pdp_filters=seller_id:445068839#wid=MLB4480457162&amp;sid=search&amp;searchVariation=MLB28687615&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=b08a440c-b925-48ec-b24e-342aeda30ed1</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>vecaracessorios</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa K1200 Azul</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>70.17</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3525254339-controle-longa-distancia-jfa-k1200-azul-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db08a440c-b925-48ec-b24e-342aeda30ed1</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>vecaracessorios</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>64.86</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:445068839#wid=MLB4616191730&amp;sid=search&amp;searchVariation=MLB28722231&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=b08a440c-b925-48ec-b24e-342aeda30ed1</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>vecaracessorios</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>466.39</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4359184068-fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db08a440c-b925-48ec-b24e-342aeda30ed1</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>vecaracessorios</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
           <t>Controle Remoto Universal Longa Distância Jfa K1200 Vermelho</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>K1200</t>
         </is>
       </c>
-      <c r="E7" t="n">
+      <c r="E26" t="n">
         <v>67.90000000000001</v>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-vermelho/p/MLB34210379?pdp_filters=seller_id:445068839#searchVariation=MLB34210379&amp;position=29&amp;search_layout=stack&amp;type=product&amp;tracking_id=4498e9ce-4632-4edb-89e6-d806be8d29d7</t>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-vermelho/p/MLB34210379?pdp_filters=seller_id:445068839#wid=MLB3625121941&amp;sid=search&amp;searchVariation=MLB34210379&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=b08a440c-b925-48ec-b24e-342aeda30ed1</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>vecaracessorios</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa K1200 Azul</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>70.17</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1319892282-controle-longa-distancia-jfa-k1200-azul-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db08a440c-b925-48ec-b24e-342aeda30ed1</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>vecaracessorios</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:445068839#wid=MLB3891587514&amp;sid=search&amp;searchVariation=MLB25707531&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=b08a440c-b925-48ec-b24e-342aeda30ed1</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>vecaracessorios</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotiva 200a Jfa Storm Bivolt Automático</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>847.99</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2668648100-fonte-carregador-automotiva-200a-jfa-storm-bivolt-automatico-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db08a440c-b925-48ec-b24e-342aeda30ed1</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>vecaracessorios</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Fonte Carregador De Bateria Jfa 70a Lite Slim Bivolt</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>FONTE 70A LITE</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>471.86</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3566053761-fonte-carregador-de-bateria-jfa-70a-lite-slim-bivolt-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db08a440c-b925-48ec-b24e-342aeda30ed1</t>
         </is>
       </c>
     </row>
